--- a/molecular_docking_analysis/4_HADDOCK_molecular_docking_results/Binding_affinity_results.xlsx
+++ b/molecular_docking_analysis/4_HADDOCK_molecular_docking_results/Binding_affinity_results.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4710c43266a82bfb/Documents/GitHub/Ruff_adults_RNASeq_gene_expression_2024/molecular_docking_analysis/4_HADDOCK_molecular_docking_results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_4559D14FB32B5D115F9F3C8F90F061D093DE797C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CAFD494-F578-4EFC-AE14-83B6D480B761}"/>
   <bookViews>
-    <workbookView windowWidth="27750" windowHeight="12450"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HADDOCK_results_summary" sheetId="1" r:id="rId1"/>
-    <sheet name="binding affinity" sheetId="2" r:id="rId2"/>
+    <sheet name="Binding_affinity_results" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -62,9 +81,6 @@
     <t>Edesolv</t>
   </si>
   <si>
-    <t>Selected for downstream analysis</t>
-  </si>
-  <si>
     <t>cluster3_1</t>
   </si>
   <si>
@@ -168,20 +184,19 @@
   </si>
   <si>
     <t>NAD+</t>
+  </si>
+  <si>
+    <t>Selected for downstream BA analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,152 +204,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,13 +214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,204 +238,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -572,262 +263,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -848,81 +294,37 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFAEB"/>
-      <color rgb="00FCCEFA"/>
-      <color rgb="00FEE6FF"/>
+      <color rgb="FFFFFAEB"/>
+      <color rgb="FFFCCEFA"/>
+      <color rgb="FFFEE6FF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -953,30 +355,29 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="it-IT"/>
               <a:t>Binding affinity </a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr defTabSz="914400">
-              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>(ΔG Kcal/mol) - Testo</a:t>
+              <a:rPr lang="it-IT"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>Δ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>G Kcal/mol) - Testo</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -985,6 +386,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -998,7 +419,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'binding affinity'!$C$1</c:f>
+              <c:f>Binding_affinity_results!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1017,12 +438,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'binding affinity'!$B$2:$B$4</c:f>
+              <c:f>Binding_affinity_results!$B$2:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1039,7 +457,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'binding affinity'!$C$2:$C$4</c:f>
+              <c:f>Binding_affinity_results!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1049,12 +467,17 @@
                 <c:pt idx="1">
                   <c:v>-8.99</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="0.00_ ">
+                <c:pt idx="2" formatCode="0.00_ ">
                   <c:v>-8.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A558-4957-83D4-2C925CD2343B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1076,6 +499,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1109,6 +533,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="849294095"/>
@@ -1167,6 +592,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="990503299"/>
@@ -1207,6 +633,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1218,9 +645,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1251,30 +678,29 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="it-IT"/>
               <a:t>Binding affinity </a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr defTabSz="914400">
-              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>(ΔG Kcal/mol) - NAD+</a:t>
+              <a:rPr lang="it-IT"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>Δ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>G Kcal/mol) - NAD+</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1283,6 +709,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1296,7 +742,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'binding affinity'!$D$1</c:f>
+              <c:f>Binding_affinity_results!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1315,12 +761,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'binding affinity'!$B$2:$B$4</c:f>
+              <c:f>Binding_affinity_results!$B$2:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1337,7 +780,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'binding affinity'!$D$2:$D$4</c:f>
+              <c:f>Binding_affinity_results!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1353,6 +796,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D6E-46AD-AEEE-5C3C47F3F419}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1374,6 +822,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1407,6 +856,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="44270814"/>
@@ -1465,6 +915,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="882491488"/>
@@ -1505,6 +956,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2602,7 +2054,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2616,14 +2068,20 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>118745</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="698500" y="908050"/>
-        <a:ext cx="3001010" cy="2468245"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2646,14 +2104,20 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>146685</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4022725" y="917575"/>
-        <a:ext cx="2828925" cy="2486660"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2918,26 +2382,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.375"/>
-    <col min="4" max="4" width="11.5"/>
-    <col min="5" max="5" width="10.375"/>
-    <col min="6" max="11" width="9.375"/>
-    <col min="13" max="13" width="9.375"/>
-    <col min="15" max="15" width="10.375"/>
+    <col min="2" max="2" width="10.3984375"/>
+    <col min="4" max="4" width="11.46484375"/>
+    <col min="5" max="5" width="10.3984375"/>
+    <col min="6" max="11" width="9.3984375"/>
+    <col min="13" max="13" width="9.3984375"/>
+    <col min="15" max="15" width="10.3984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2987,92 +2451,92 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2">
-        <v>-13.343943</v>
+        <v>-13.343942999999999</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
-        <v>380.337</v>
+      <c r="F2" s="2">
+        <v>380.33699999999999</v>
       </c>
       <c r="G2">
-        <v>-47.264</v>
+        <v>-47.264000000000003</v>
       </c>
       <c r="H2">
-        <v>-54.1314</v>
+        <v>-54.131399999999999</v>
       </c>
       <c r="I2">
-        <v>-54.8944</v>
+        <v>-54.894399999999997</v>
       </c>
       <c r="J2">
-        <v>7.63037</v>
-      </c>
-      <c r="K2" s="4">
+        <v>7.6303700000000001</v>
+      </c>
+      <c r="K2" s="3">
         <v>427.601</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <v>12</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>1595.57</v>
       </c>
       <c r="N2">
-        <v>117.814</v>
+        <v>117.81399999999999</v>
       </c>
       <c r="O2">
         <v>-1.97268</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>-12.911099</v>
       </c>
       <c r="E3">
-        <v>0.306</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="F3">
-        <v>437.468</v>
-      </c>
-      <c r="G3" s="3">
-        <v>-60.9132</v>
-      </c>
-      <c r="H3" s="4">
+        <v>437.46800000000002</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-60.913200000000003</v>
+      </c>
+      <c r="H3" s="3">
         <v>-56.887</v>
       </c>
-      <c r="I3" s="3">
-        <v>-56.4397</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="I3" s="2">
+        <v>-56.439700000000002</v>
+      </c>
+      <c r="J3" s="2">
         <v>-4.47349</v>
       </c>
       <c r="K3">
-        <v>498.381</v>
+        <v>498.38099999999997</v>
       </c>
       <c r="L3">
         <v>14</v>
@@ -3080,184 +2544,181 @@
       <c r="M3">
         <v>1599.16</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>83.4392</v>
       </c>
-      <c r="O3" s="4">
-        <v>-5.86215</v>
+      <c r="O3" s="3">
+        <v>-5.8621499999999997</v>
       </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>-12.90219</v>
+        <v>-12.902189999999999</v>
       </c>
       <c r="E4">
         <v>0.247</v>
       </c>
-      <c r="F4" s="4">
-        <v>374.715</v>
-      </c>
-      <c r="G4" s="4">
-        <v>-67.8954</v>
+      <c r="F4" s="3">
+        <v>374.71499999999997</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-67.895399999999995</v>
       </c>
       <c r="H4">
-        <v>-54.6816</v>
+        <v>-54.681600000000003</v>
       </c>
       <c r="I4">
         <v>-53.2134</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>-14.682</v>
       </c>
       <c r="K4">
         <v>442.61</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>12</v>
       </c>
       <c r="M4">
         <v>1631.35</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>91.256</v>
       </c>
-      <c r="O4" s="3">
-        <v>-2.48159</v>
-      </c>
-      <c r="P4" t="s">
-        <v>24</v>
+      <c r="O4" s="2">
+        <v>-2.4815900000000002</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>-12.7545</v>
       </c>
       <c r="E5">
-        <v>0.179</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="F5">
         <v>401.839</v>
       </c>
       <c r="G5">
-        <v>-36.0072</v>
-      </c>
-      <c r="H5" s="3">
-        <v>-54.8722</v>
-      </c>
-      <c r="I5" s="4">
-        <v>-56.9683</v>
+        <v>-36.007199999999997</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-54.872199999999999</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-56.968299999999999</v>
       </c>
       <c r="J5">
-        <v>20.9611</v>
-      </c>
-      <c r="K5" s="3">
-        <v>437.847</v>
+        <v>20.961099999999998</v>
+      </c>
+      <c r="K5" s="2">
+        <v>437.84699999999998</v>
       </c>
       <c r="L5">
         <v>14</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>1589.73</v>
       </c>
       <c r="N5">
-        <v>134.693</v>
+        <v>134.69300000000001</v>
       </c>
       <c r="O5">
-        <v>-1.66701</v>
+        <v>-1.6670100000000001</v>
       </c>
       <c r="P5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="13:13">
-      <c r="M6" s="9"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
       <c r="D7">
-        <v>-16.69112</v>
+        <v>-16.691120000000002</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="5">
-        <v>351.131</v>
+      <c r="F7" s="4">
+        <v>351.13099999999997</v>
       </c>
       <c r="G7">
-        <v>-65.4486</v>
+        <v>-65.448599999999999</v>
       </c>
       <c r="H7">
         <v>-56.1449</v>
       </c>
       <c r="I7">
-        <v>-55.1112</v>
+        <v>-55.111199999999997</v>
       </c>
       <c r="J7">
-        <v>-10.3374</v>
-      </c>
-      <c r="K7" s="6">
-        <v>416.579</v>
-      </c>
-      <c r="L7" s="6">
+        <v>-10.337400000000001</v>
+      </c>
+      <c r="K7" s="5">
+        <v>416.57900000000001</v>
+      </c>
+      <c r="L7" s="5">
         <v>11</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>1604.33</v>
       </c>
       <c r="N7">
         <v>126.253</v>
       </c>
       <c r="O7">
-        <v>-2.20408</v>
+        <v>-2.2040799999999998</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>-16.61857</v>
+        <v>-16.618569999999998</v>
       </c>
       <c r="E8">
-        <v>0.144</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F8">
         <v>355.56</v>
@@ -3265,14 +2726,14 @@
       <c r="G8">
         <v>-65.2898</v>
       </c>
-      <c r="H8" s="6">
-        <v>-56.4521</v>
-      </c>
-      <c r="I8" s="6">
-        <v>-55.4701</v>
+      <c r="H8" s="5">
+        <v>-56.452100000000002</v>
+      </c>
+      <c r="I8" s="5">
+        <v>-55.470100000000002</v>
       </c>
       <c r="J8">
-        <v>-9.8197</v>
+        <v>-9.8196999999999992</v>
       </c>
       <c r="K8">
         <v>420.85</v>
@@ -3286,25 +2747,25 @@
       <c r="N8">
         <v>126.733</v>
       </c>
-      <c r="O8" s="5">
-        <v>-2.2515</v>
+      <c r="O8" s="4">
+        <v>-2.2515000000000001</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>-16.57234</v>
+        <v>-16.572340000000001</v>
       </c>
       <c r="E9">
         <v>0.22</v>
@@ -3312,170 +2773,170 @@
       <c r="F9">
         <v>354.01</v>
       </c>
-      <c r="G9" s="5">
-        <v>-66.8603</v>
-      </c>
-      <c r="H9" s="5">
-        <v>-56.3562</v>
-      </c>
-      <c r="I9" s="5">
-        <v>-55.1891</v>
-      </c>
-      <c r="J9" s="5">
-        <v>-11.6712</v>
+      <c r="G9" s="4">
+        <v>-66.860299999999995</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-56.356200000000001</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-55.189100000000003</v>
+      </c>
+      <c r="J9" s="4">
+        <v>-11.671200000000001</v>
       </c>
       <c r="K9">
-        <v>420.871</v>
+        <v>420.87099999999998</v>
       </c>
       <c r="L9">
         <v>12</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>1606.09</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>125.271</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>-2.30322</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>-16.20901</v>
+        <v>-16.209009999999999</v>
       </c>
       <c r="E10">
-        <v>0.133</v>
-      </c>
-      <c r="F10" s="6">
-        <v>350.757</v>
-      </c>
-      <c r="G10" s="6">
-        <v>-68.2314</v>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>350.75700000000001</v>
+      </c>
+      <c r="G10" s="5">
+        <v>-68.231399999999994</v>
       </c>
       <c r="H10">
-        <v>-55.9639</v>
+        <v>-55.963900000000002</v>
       </c>
       <c r="I10">
         <v>-54.6008</v>
       </c>
-      <c r="J10" s="6">
-        <v>-13.6306</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="J10" s="5">
+        <v>-13.630599999999999</v>
+      </c>
+      <c r="K10" s="4">
         <v>418.988</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>11</v>
       </c>
       <c r="M10">
         <v>1606.13</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>123.214</v>
       </c>
       <c r="O10">
-        <v>-2.14395</v>
-      </c>
-      <c r="P10" t="s">
-        <v>24</v>
+        <v>-2.1439499999999998</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
       <c r="D12">
-        <v>-11.244134</v>
+        <v>-11.244134000000001</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>398.774</v>
       </c>
-      <c r="G12" s="7">
-        <v>-37.5423</v>
-      </c>
-      <c r="H12" s="8">
-        <v>-54.1127</v>
-      </c>
-      <c r="I12" s="7">
-        <v>-55.9539</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="G12" s="6">
+        <v>-37.542299999999997</v>
+      </c>
+      <c r="H12" s="7">
+        <v>-54.112699999999997</v>
+      </c>
+      <c r="I12" s="6">
+        <v>-55.953899999999997</v>
+      </c>
+      <c r="J12" s="6">
         <v>18.4116</v>
       </c>
       <c r="K12">
-        <v>436.316</v>
+        <v>436.31599999999997</v>
       </c>
       <c r="L12">
         <v>13</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>1581.71</v>
       </c>
       <c r="N12">
-        <v>145.402</v>
+        <v>145.40199999999999</v>
       </c>
       <c r="O12">
-        <v>-0.762994</v>
+        <v>-0.76299399999999995</v>
       </c>
       <c r="P12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13">
-        <v>-11.01631</v>
+        <v>-11.016310000000001</v>
       </c>
       <c r="E13">
-        <v>0.208</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="F13">
-        <v>421.253</v>
+        <v>421.25299999999999</v>
       </c>
       <c r="G13">
-        <v>-13.0836</v>
+        <v>-13.083600000000001</v>
       </c>
       <c r="H13">
-        <v>-52.4367</v>
-      </c>
-      <c r="I13" s="8">
+        <v>-52.436700000000002</v>
+      </c>
+      <c r="I13" s="7">
         <v>-56.8093</v>
       </c>
       <c r="J13">
-        <v>43.7257</v>
+        <v>43.725700000000003</v>
       </c>
       <c r="K13">
-        <v>434.337</v>
+        <v>434.33699999999999</v>
       </c>
       <c r="L13">
         <v>12</v>
@@ -3484,74 +2945,74 @@
         <v>1599.67</v>
       </c>
       <c r="N13">
-        <v>157.561</v>
-      </c>
-      <c r="O13" s="8">
+        <v>157.56100000000001</v>
+      </c>
+      <c r="O13" s="7">
         <v>-2.01328</v>
       </c>
       <c r="P13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>-10.417389</v>
       </c>
       <c r="E14">
-        <v>0.268</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="F14">
         <v>398.97</v>
       </c>
       <c r="G14">
-        <v>-34.239</v>
-      </c>
-      <c r="H14" s="7">
-        <v>-52.7854</v>
+        <v>-34.238999999999997</v>
+      </c>
+      <c r="H14" s="6">
+        <v>-52.785400000000003</v>
       </c>
       <c r="I14">
         <v>-54.8461</v>
       </c>
       <c r="J14">
-        <v>20.6071</v>
-      </c>
-      <c r="K14" s="7">
+        <v>20.607099999999999</v>
+      </c>
+      <c r="K14" s="6">
         <v>433.209</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <v>12</v>
       </c>
       <c r="M14">
         <v>1586.35</v>
       </c>
-      <c r="N14" s="7">
-        <v>136.609</v>
+      <c r="N14" s="6">
+        <v>136.60900000000001</v>
       </c>
       <c r="O14">
-        <v>-0.952899</v>
+        <v>-0.95289900000000005</v>
       </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>-10.235816</v>
@@ -3559,58 +3020,56 @@
       <c r="E15">
         <v>0.245</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>372.608</v>
       </c>
-      <c r="G15" s="8">
-        <v>-42.6054</v>
+      <c r="G15" s="7">
+        <v>-42.605400000000003</v>
       </c>
       <c r="H15">
-        <v>-50.4263</v>
+        <v>-50.426299999999998</v>
       </c>
       <c r="I15">
-        <v>-51.2953</v>
-      </c>
-      <c r="J15" s="8">
+        <v>-51.295299999999997</v>
+      </c>
+      <c r="J15" s="7">
         <v>8.68994</v>
       </c>
-      <c r="K15" s="8">
-        <v>415.213</v>
-      </c>
-      <c r="L15" s="8">
+      <c r="K15" s="7">
+        <v>415.21300000000002</v>
+      </c>
+      <c r="L15" s="7">
         <v>11</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <v>1565.05</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>125.81</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="6">
         <v>-1.33081</v>
       </c>
-      <c r="P15" t="s">
-        <v>24</v>
+      <c r="P15" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3621,18 +3080,18 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>-8.91</v>
@@ -3643,10 +3102,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>-8.99</v>
@@ -3657,10 +3116,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1">
         <v>-8.6</v>
@@ -3669,56 +3128,54 @@
         <v>-7.54</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>47</v>
+      </c>
       <c r="D21">
         <f>C2-C4</f>
-        <v>-0.31</v>
+        <v>-0.3100000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <f>C3-C4</f>
-        <v>-0.390000000000001</v>
+        <v>-0.39000000000000057</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25">
         <f>D2-D4</f>
-        <v>-0.4</v>
+        <v>-0.40000000000000036</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26">
         <f>D3-D4</f>
-        <v>-0.35</v>
+        <v>-0.34999999999999964</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>